--- a/Economics/Forecast/Stationaritiy/Price/Japan_gvt_10y.xlsx
+++ b/Economics/Forecast/Stationaritiy/Price/Japan_gvt_10y.xlsx
@@ -417,13 +417,13 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>0.4582418783425533</v>
+        <v>0.47272525314916</v>
       </c>
       <c r="D2">
-        <v>-0.2483745983360877</v>
+        <v>-0.2441432289412215</v>
       </c>
       <c r="E2">
-        <v>1.164858355021194</v>
+        <v>1.189593735239541</v>
       </c>
       <c r="F2">
         <v>1.1895</v>
@@ -437,13 +437,13 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>1.22437913792494</v>
+        <v>1.124034458969674</v>
       </c>
       <c r="D3">
-        <v>0.5068758473252206</v>
+        <v>0.397072301817052</v>
       </c>
       <c r="E3">
-        <v>1.941882428524659</v>
+        <v>1.850996616122297</v>
       </c>
       <c r="F3">
         <v>0.78</v>
@@ -457,13 +457,13 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>0.6599222454866299</v>
+        <v>0.7347901327027974</v>
       </c>
       <c r="D4">
-        <v>-0.05904506665309894</v>
+        <v>0.008367136752554294</v>
       </c>
       <c r="E4">
-        <v>1.378889557626359</v>
+        <v>1.461213128653041</v>
       </c>
       <c r="F4">
         <v>0.4592</v>
@@ -477,13 +477,13 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>0.3940487517100247</v>
+        <v>0.4318648980890347</v>
       </c>
       <c r="D5">
-        <v>-0.3224140420318163</v>
+        <v>-0.2929487959547106</v>
       </c>
       <c r="E5">
-        <v>1.110511545451866</v>
+        <v>1.15667859213278</v>
       </c>
       <c r="F5">
         <v>0.3221</v>
@@ -497,13 +497,13 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>0.2862372125631377</v>
+        <v>0.3028261646451134</v>
       </c>
       <c r="D6">
-        <v>-0.4268738784204806</v>
+        <v>-0.4187697665849171</v>
       </c>
       <c r="E6">
-        <v>0.9993483035467559</v>
+        <v>1.024422095875144</v>
       </c>
       <c r="F6">
         <v>0.4162</v>
@@ -517,13 +517,13 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>0.4044845456879128</v>
+        <v>0.3914363524824468</v>
       </c>
       <c r="D7">
-        <v>-0.3056298844709947</v>
+        <v>-0.3270141711075398</v>
       </c>
       <c r="E7">
-        <v>1.11459897584682</v>
+        <v>1.109886876072433</v>
       </c>
       <c r="F7">
         <v>-0.1568</v>
@@ -537,13 +537,13 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>-0.228966859452032</v>
+        <v>-0.1471866676501092</v>
       </c>
       <c r="D8">
-        <v>-0.9437714638506882</v>
+        <v>-0.8698348103028393</v>
       </c>
       <c r="E8">
-        <v>0.4858377449466242</v>
+        <v>0.575461475002621</v>
       </c>
       <c r="F8">
         <v>-0.0166</v>
@@ -557,13 +557,13 @@
         <v>106</v>
       </c>
       <c r="C9">
-        <v>0.01429305706173459</v>
+        <v>-0.01558071369277605</v>
       </c>
       <c r="D9">
-        <v>-0.6982484580218247</v>
+        <v>-0.7352408867876221</v>
       </c>
       <c r="E9">
-        <v>0.7268345721452938</v>
+        <v>0.7040794594020701</v>
       </c>
       <c r="F9">
         <v>-0.5294</v>
@@ -577,13 +577,13 @@
         <v>107</v>
       </c>
       <c r="C10">
-        <v>-0.5604186222568518</v>
+        <v>-0.4968868117059885</v>
       </c>
       <c r="D10">
-        <v>-1.277018592211987</v>
+        <v>-1.21976236733468</v>
       </c>
       <c r="E10">
-        <v>0.1561813476982834</v>
+        <v>0.2259887439227031</v>
       </c>
       <c r="F10">
         <v>-0.7528</v>
@@ -597,13 +597,13 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>-0.721682346140597</v>
+        <v>-0.7073554691211451</v>
       </c>
       <c r="D11">
-        <v>-1.435868500070613</v>
+        <v>-1.428496556852113</v>
       </c>
       <c r="E11">
-        <v>-0.007496192210580843</v>
+        <v>0.01378561860982286</v>
       </c>
       <c r="F11">
         <v>-0.3684</v>
@@ -617,13 +617,13 @@
         <v>109</v>
       </c>
       <c r="C12">
-        <v>-0.2910148676735844</v>
+        <v>-0.3454621886488157</v>
       </c>
       <c r="D12">
-        <v>-1.004978816142498</v>
+        <v>-1.066078359044457</v>
       </c>
       <c r="E12">
-        <v>0.4229490807953297</v>
+        <v>0.3751539817468256</v>
       </c>
       <c r="F12">
         <v>-0.699</v>
@@ -637,13 +637,13 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>-0.6971787914686771</v>
+        <v>-0.6561560476262128</v>
       </c>
       <c r="D13">
-        <v>-1.411920504685257</v>
+        <v>-1.376528953973479</v>
       </c>
       <c r="E13">
-        <v>0.01756292174790275</v>
+        <v>0.06421685872105354</v>
       </c>
       <c r="F13">
         <v>-1.0057</v>
@@ -657,13 +657,13 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <v>-0.9714162428176788</v>
+        <v>-0.9458801728580678</v>
       </c>
       <c r="D14">
-        <v>-1.68522378738364</v>
+        <v>-1.665942892846088</v>
       </c>
       <c r="E14">
-        <v>-0.2576086982517176</v>
+        <v>-0.2258174528700476</v>
       </c>
       <c r="F14">
         <v>-2.1868</v>
@@ -677,13 +677,13 @@
         <v>112</v>
       </c>
       <c r="C15">
-        <v>-2.215219391103375</v>
+        <v>-2.074417344958417</v>
       </c>
       <c r="D15">
-        <v>-2.960346401801275</v>
+        <v>-2.826956549828563</v>
       </c>
       <c r="E15">
-        <v>-1.470092380405474</v>
+        <v>-1.321878140088272</v>
       </c>
       <c r="F15">
         <v>-2.1789</v>
@@ -697,13 +697,13 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>-2.028881550068601</v>
+        <v>-2.070385301452455</v>
       </c>
       <c r="D16">
-        <v>-2.770734169169006</v>
+        <v>-2.819813467182947</v>
       </c>
       <c r="E16">
-        <v>-1.287028930968197</v>
+        <v>-1.320957135721962</v>
       </c>
       <c r="F16">
         <v>-2.0715</v>
@@ -717,13 +717,13 @@
         <v>114</v>
       </c>
       <c r="C17">
-        <v>-1.941007290709553</v>
+        <v>-1.968523141829089</v>
       </c>
       <c r="D17">
-        <v>-2.679634344839839</v>
+        <v>-2.714656326703148</v>
       </c>
       <c r="E17">
-        <v>-1.202380236579266</v>
+        <v>-1.222389956955029</v>
       </c>
       <c r="F17">
         <v>-2.3822</v>
@@ -737,13 +737,13 @@
         <v>115</v>
       </c>
       <c r="C18">
-        <v>-2.300928501146005</v>
+        <v>-2.276222913681414</v>
       </c>
       <c r="D18">
-        <v>-3.040570211600466</v>
+        <v>-3.022780054926978</v>
       </c>
       <c r="E18">
-        <v>-1.561286790691543</v>
+        <v>-1.529665772435851</v>
       </c>
       <c r="F18">
         <v>-2.8119</v>
@@ -757,13 +757,13 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>-2.738044286279285</v>
+        <v>-2.706618540481434</v>
       </c>
       <c r="D19">
-        <v>-3.48001788146968</v>
+        <v>-3.455964329871521</v>
       </c>
       <c r="E19">
-        <v>-1.99607069108889</v>
+        <v>-1.957272751091347</v>
       </c>
       <c r="F19">
         <v>-2.7503</v>
@@ -777,13 +777,13 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>-2.61224075393659</v>
+        <v>-2.649265529164035</v>
       </c>
       <c r="D20">
-        <v>-3.351034586856142</v>
+        <v>-3.39542214808231</v>
       </c>
       <c r="E20">
-        <v>-1.873446921017039</v>
+        <v>-1.90310891024576</v>
       </c>
       <c r="F20">
         <v>-3.5537</v>
@@ -797,13 +797,13 @@
         <v>118</v>
       </c>
       <c r="C21">
-        <v>-3.541327687919282</v>
+        <v>-3.460967810033611</v>
       </c>
       <c r="D21">
-        <v>-4.295134430957036</v>
+        <v>-4.220610867388258</v>
       </c>
       <c r="E21">
-        <v>-2.787520944881527</v>
+        <v>-2.701324752678963</v>
       </c>
       <c r="F21">
         <v>-3.5484</v>
@@ -817,13 +817,13 @@
         <v>119</v>
       </c>
       <c r="C22">
-        <v>-3.424136197612426</v>
+        <v>-3.460113221948583</v>
       </c>
       <c r="D22">
-        <v>-4.174761424667989</v>
+        <v>-4.216632889777847</v>
       </c>
       <c r="E22">
-        <v>-2.673510970556863</v>
+        <v>-2.703593554119319</v>
       </c>
       <c r="F22">
         <v>-3.6697</v>
@@ -837,13 +837,13 @@
         <v>120</v>
       </c>
       <c r="C23">
-        <v>-3.583866764809423</v>
+        <v>-3.587608960922378</v>
       </c>
       <c r="D23">
-        <v>-4.332385200694902</v>
+        <v>-4.341677315207018</v>
       </c>
       <c r="E23">
-        <v>-2.835348328923944</v>
+        <v>-2.833540606637739</v>
       </c>
       <c r="F23">
         <v>-3.9208</v>
@@ -857,13 +857,13 @@
         <v>121</v>
       </c>
       <c r="C24">
-        <v>-3.85627455022561</v>
+        <v>-3.846664549515039</v>
       </c>
       <c r="D24">
-        <v>-4.603713550250013</v>
+        <v>-4.5995487233309</v>
       </c>
       <c r="E24">
-        <v>-3.108835550201207</v>
+        <v>-3.093780375699178</v>
       </c>
       <c r="F24">
         <v>-2.7789</v>
@@ -877,13 +877,13 @@
         <v>122</v>
       </c>
       <c r="C25">
-        <v>-2.536086880801504</v>
+        <v>-2.688996581997877</v>
       </c>
       <c r="D25">
-        <v>-3.30410641216833</v>
+        <v>-3.462172217908101</v>
       </c>
       <c r="E25">
-        <v>-1.768067349434678</v>
+        <v>-1.915820946087653</v>
       </c>
       <c r="F25">
         <v>-2.8955</v>
@@ -897,13 +897,13 @@
         <v>123</v>
       </c>
       <c r="C26">
-        <v>-2.817993677166949</v>
+        <v>-2.807700672853281</v>
       </c>
       <c r="D26">
-        <v>-3.585092254188294</v>
+        <v>-3.578474477242461</v>
       </c>
       <c r="E26">
-        <v>-2.050895100145604</v>
+        <v>-2.036926868464101</v>
       </c>
       <c r="F26">
         <v>-3.0829</v>
